--- a/nexus_river_view_master.xlsx
+++ b/nexus_river_view_master.xlsx
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Atiqul Islam</t>
+          <t>Atiqul Islamm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
